--- a/20220421_algo_v2_9/algo_results/perf_result/user_cf.xlsx
+++ b/20220421_algo_v2_9/algo_results/perf_result/user_cf.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,16 +456,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008690807799442897</v>
+        <v>0.01301432890758512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00807799442896936</v>
+        <v>0.01320457232952306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008384401114206129</v>
+        <v>0.01310945061855409</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003064066852367688</v>
+        <v>9.512171096897042e-05</v>
       </c>
     </row>
     <row r="3">
@@ -473,16 +473,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2553191489361702</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2384868421052632</v>
+        <v>0.3205741626794258</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2469029955207167</v>
+        <v>0.3220517872220658</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008416153415453514</v>
+        <v>0.001477624542640027</v>
       </c>
     </row>
     <row r="4">
@@ -490,16 +490,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01680943914659771</v>
+        <v>0.02502211550612915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01562668390990408</v>
+        <v>0.02536437630134393</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01621806152825089</v>
+        <v>0.02519324590373654</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005913776183468101</v>
+        <v>0.00017113039760739</v>
       </c>
     </row>
   </sheetData>
